--- a/uploads/files/buildings.xlsx
+++ b/uploads/files/buildings.xlsx
@@ -244,7 +244,7 @@
     <t>77 Boulevard Vauban 59800 Lille</t>
   </si>
   <si>
-    <t>2 All?e Lakanal 59650 Villeneuve d'ascq</t>
+    <t>2 All�e Lakanal 59650 Villeneuve d'ascq</t>
   </si>
   <si>
     <t>832 696 892</t>
@@ -628,7 +628,7 @@
     <t>Entrepot Metro Buchelay</t>
   </si>
   <si>
-    <t>Rue des Closeaux Lieu dit La Grande Pi?ce 78200 BUCHELAY</t>
+    <t>Rue des Closeaux Lieu dit La Grande Pi�ce 78200 BUCHELAY</t>
   </si>
   <si>
     <t>corentin.gaspard@metro.fr</t>
@@ -1000,7 +1000,7 @@
     <t>Entrepot Metro Angouleme</t>
   </si>
   <si>
-    <t>Rue des Marais de Grelet La Combe ? Rosier 16000 ANGOULEME</t>
+    <t>Rue des Marais de Grelet La Combe � Rosier 16000 ANGOULEME</t>
   </si>
   <si>
     <t>christian.mainsat@metro.fr</t>
@@ -1546,7 +1546,7 @@
     <t>Entrepot Metro Anglet</t>
   </si>
   <si>
-    <t>Parc d'Activit? de Maignon 7 rue du Moulin de Brindos 64600 ANGLET</t>
+    <t>Parc d'Activit� de Maignon 7 rue du Moulin de Brindos 64600 ANGLET</t>
   </si>
   <si>
     <t>fabrice.lanore@metro.fr</t>
@@ -1684,7 +1684,7 @@
     <t>Entrepot Metro Limonest</t>
   </si>
   <si>
-    <t>Parc d'Activit? de Limonest Chemin de la Bruyere 69760 LIMONEST</t>
+    <t>Parc d'Activit� de Limonest Chemin de la Bruyere 69760 LIMONEST</t>
   </si>
   <si>
     <t>daniel.bimoz@metro.fr</t>
@@ -1717,7 +1717,7 @@
     <t>Entrepot Metro Auxerre Moneteau</t>
   </si>
   <si>
-    <t>Parc d'Activit?s des Terres du Canada 89470 MONETEAU</t>
+    <t>Parc d'Activit�s des Terres du Canada 89470 MONETEAU</t>
   </si>
   <si>
     <t>michel.szabat@metro.fr</t>
@@ -1756,7 +1756,7 @@
     <t>Entrepot Metro Avignon</t>
   </si>
   <si>
-    <t>March? d'Inter?t National AVIGNON SUD 135, avenue Pierre Semard 84000 AVIGNON</t>
+    <t>March� d'Inter�t National AVIGNON SUD 135, avenue Pierre Semard 84000 AVIGNON</t>
   </si>
   <si>
     <t>jeanmichel.clemenson@metro.fr</t>
@@ -1786,7 +1786,7 @@
     <t>Entrepot Metro Chambery Voglans</t>
   </si>
   <si>
-    <t>Parc d'Activit? La Dent du Chat 73420 VOGLANS</t>
+    <t>Parc d'Activit� La Dent du Chat 73420 VOGLANS</t>
   </si>
   <si>
     <t>mathieu.gillet@metro.fr</t>
@@ -1810,7 +1810,7 @@
     <t>Entrepot Metro Albertville</t>
   </si>
   <si>
-    <t>Zone d'Activit? des Vernes 33 rue Robert Piddat 73200 ALBERTVILLE</t>
+    <t>Zone d'Activit� des Vernes 33 rue Robert Piddat 73200 ALBERTVILLE</t>
   </si>
   <si>
     <t>Xavier LAURENT</t>
@@ -1825,7 +1825,7 @@
     <t>Entrepot Metro Valence</t>
   </si>
   <si>
-    <t>P?le d'Activit?s Briffaut Est avenue Maurice Simonet BP88 26903 VALENCE CEDEX 9</t>
+    <t>P�le d'Activit�s Briffaut Est avenue Maurice Simonet BP88 26903 VALENCE CEDEX 9</t>
   </si>
   <si>
     <t>valence.respentretien@metro.fr</t>
@@ -1849,7 +1849,7 @@
     <t>Entrepot Metro Grenoble Sassenage</t>
   </si>
   <si>
-    <t>Z.I. l'Argenti?re 8, rue Fran?ois Blumet 38360 SASSENAGE</t>
+    <t>Z.I. l'Argenti�re 8, rue Fran�ois Blumet 38360 SASSENAGE</t>
   </si>
   <si>
     <t>yoann.esprit@metro.fr</t>
@@ -1873,7 +1873,7 @@
     <t>Entrepot Metro Annecy</t>
   </si>
   <si>
-    <t>Z.A.C des romains Lieu-Dit La Salle All?e Jean Mermoz B.P. 9 74961 CRAN GEVRIER</t>
+    <t>Z.A.C des romains Lieu-Dit La Salle All�e Jean Mermoz B.P. 9 74961 CRAN GEVRIER</t>
   </si>
   <si>
     <t>louis.lee-a-hing@metro.fr</t>
@@ -2032,7 +2032,7 @@
     <t>Entrepot Metro Agen</t>
   </si>
   <si>
-    <t>All?e des Riols Lieu dit La Capelette 47000 AGEN</t>
+    <t>All�e des Riols Lieu dit La Capelette 47000 AGEN</t>
   </si>
   <si>
     <t>c.fournet-fayard@metro.fr</t>
@@ -2305,7 +2305,7 @@
     <t>COMPTABILITE 5 rue des Grands Pres 92024 NANTERRE Cedex</t>
   </si>
   <si>
-    <t>N?SIRET</t>
+    <t>N�SIRET</t>
   </si>
   <si>
     <t>geoffrey.depriestre@cg2m.fr</t>
@@ -2365,7 +2365,7 @@
     <t>Plateforme Metro Rungis</t>
   </si>
   <si>
-    <t>25 Rue des Antilles B?timent I2 ? zone des entrep?ts 94538 RUNGIS CEDEX</t>
+    <t>25 Rue des Antilles B�timent I2 � zone des entrep�ts 94538 RUNGIS CEDEX</t>
   </si>
   <si>
     <t>METRO France ZA. du petit Nanterre 5 Rue des Grands Pres 92000 NANTERRE</t>
